--- a/results/knowledge_type/crosstable_knowledge_types_category.xlsx
+++ b/results/knowledge_type/crosstable_knowledge_types_category.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\UdeM\Maîtrise\Données\labrri_ocpm_systemic_racism\results\knowledge_type\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0004213-8644-46F1-80A8-8DA9062ACA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,9 +71,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -87,11 +98,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -101,14 +127,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -116,13 +267,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +319,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,6 +353,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,9 +388,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,150 +564,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="84" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="13">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="13">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="13">
         <v>44</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>30</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="13">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="13">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="13">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="13">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="13">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>73</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>45</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>21</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="12">
         <v>139</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>